--- a/pp/gantt/DevGantt.xlsx
+++ b/pp/gantt/DevGantt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Task #</t>
   </si>
@@ -80,13 +80,7 @@
     <t>Demo to client</t>
   </si>
   <si>
-    <t>Refinements</t>
-  </si>
-  <si>
     <t>Deployment</t>
-  </si>
-  <si>
-    <t>System deployment</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,14 +501,14 @@
         <v>9</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2" si="0">CONCATENATE(NETWORKDAYS(F2,G2),"g")</f>
-        <v>20g</v>
+        <f t="shared" ref="E2:E12" si="0">CONCATENATE(NETWORKDAYS(F2,G2),"g")</f>
+        <v>278g</v>
       </c>
       <c r="F2" s="2">
-        <v>42688.333333333336</v>
+        <v>42744.333333333336</v>
       </c>
       <c r="G2" s="2">
-        <v>42715.666666666664</v>
+        <v>43131.666666666664</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -529,6 +523,16 @@
       </c>
       <c r="C3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>30g</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42744.333333333336</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42783.666666666664</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -544,6 +548,16 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>40g</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42744.333333333336</v>
+      </c>
+      <c r="G4" s="2">
+        <v>42797.666666666664</v>
+      </c>
       <c r="I4">
         <v>2</v>
       </c>
@@ -558,6 +572,16 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>10g</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42765.333333333336</v>
+      </c>
+      <c r="G5" s="2">
+        <v>42776.666666666664</v>
+      </c>
       <c r="I5">
         <v>2</v>
       </c>
@@ -572,6 +596,16 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>150g</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42779.333333333336</v>
+      </c>
+      <c r="G6" s="2">
+        <v>42986.666666666664</v>
+      </c>
       <c r="I6">
         <v>2</v>
       </c>
@@ -586,6 +620,16 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>160g</v>
+      </c>
+      <c r="F7" s="2">
+        <v>42779.333333333336</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43000.666666666664</v>
+      </c>
       <c r="I7">
         <v>2</v>
       </c>
@@ -600,6 +644,16 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>35g</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42968.333333333336</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43014.666666666664</v>
+      </c>
       <c r="I8">
         <v>2</v>
       </c>
@@ -614,50 +668,44 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>1g</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43017.333333333336</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43017.666666666664</v>
+      </c>
       <c r="I9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE(NETWORKDAYS(F10,G10),"g")</f>
+        <v>4g</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43018.333333333336</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43021.666666666664</v>
+      </c>
       <c r="I10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pp/gantt/DevGantt.xlsx
+++ b/pp/gantt/DevGantt.xlsx
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E12" si="0">CONCATENATE(NETWORKDAYS(F2,G2),"g")</f>
+        <f t="shared" ref="E2:E9" si="0">CONCATENATE(NETWORKDAYS(F2,G2),"g")</f>
         <v>278g</v>
       </c>
       <c r="F2" s="2">
@@ -683,6 +683,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -701,11 +704,6 @@
       </c>
       <c r="I10">
         <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/pp/gantt/DevGantt.xlsx
+++ b/pp/gantt/DevGantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pp/gantt/DevGantt.xlsx
+++ b/pp/gantt/DevGantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,13 +574,13 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>10g</v>
+        <v>25g</v>
       </c>
       <c r="F5" s="2">
-        <v>42765.333333333336</v>
+        <v>42779.333333333336</v>
       </c>
       <c r="G5" s="2">
-        <v>42776.666666666664</v>
+        <v>42811.666666666664</v>
       </c>
       <c r="I5">
         <v>2</v>
